--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -13813,13 +13813,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>7912</v>
+        <v>7913</v>
       </c>
       <c r="D263" t="n">
         <v>1455</v>
       </c>
       <c r="E263" t="n">
-        <v>44690774</v>
+        <v>44890774</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18876</v>
+        <v>18880</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75305211</v>
+        <v>75348959</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16941</v>
+        <v>16946</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50660115</v>
+        <v>50673087</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21004,13 +21004,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>29544</v>
+        <v>29545</v>
       </c>
       <c r="D404" t="n">
         <v>3814</v>
       </c>
       <c r="E404" t="n">
-        <v>56437349</v>
+        <v>56437589</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -21106,13 +21106,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6298</v>
+        <v>6300</v>
       </c>
       <c r="D406" t="n">
         <v>911</v>
       </c>
       <c r="E406" t="n">
-        <v>19477128</v>
+        <v>19499128</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>40408</v>
+        <v>40409</v>
       </c>
       <c r="D428" t="n">
         <v>6930</v>
       </c>
       <c r="E428" t="n">
-        <v>215280187</v>
+        <v>215322000</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73759</v>
+        <v>73763</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>387151631</v>
+        <v>387497603</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416809</v>
+        <v>416811</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725452946</v>
+        <v>725457024</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292185</v>
+        <v>292195</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1772328458</v>
+        <v>1772645302</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230753</v>
+        <v>230770</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1822785565</v>
+        <v>1823626066</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184271</v>
+        <v>184274</v>
       </c>
       <c r="D505" t="n">
         <v>27738</v>
       </c>
       <c r="E505" t="n">
-        <v>332753046</v>
+        <v>332760257</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62197</v>
+        <v>62201</v>
       </c>
       <c r="D509" t="n">
         <v>11278</v>
       </c>
       <c r="E509" t="n">
-        <v>299200303</v>
+        <v>299258820</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71200</v>
+        <v>71205</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287631813</v>
+        <v>287671448</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="D513" t="n">
         <v>540</v>
       </c>
       <c r="E513" t="n">
-        <v>14394035</v>
+        <v>14424035</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -27736,13 +27736,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>37781</v>
+        <v>37782</v>
       </c>
       <c r="D536" t="n">
         <v>6687</v>
       </c>
       <c r="E536" t="n">
-        <v>173282736</v>
+        <v>173283241</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73208</v>
+        <v>73209</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367211591</v>
+        <v>367212686</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -34519,13 +34519,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>39559</v>
+        <v>39560</v>
       </c>
       <c r="D669" t="n">
         <v>7193</v>
       </c>
       <c r="E669" t="n">
-        <v>209622091</v>
+        <v>209653170</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -40537,13 +40537,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>133967</v>
+        <v>133970</v>
       </c>
       <c r="D787" t="n">
         <v>28168</v>
       </c>
       <c r="E787" t="n">
-        <v>211459201</v>
+        <v>211464673</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -44515,13 +44515,13 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>28827</v>
+        <v>28829</v>
       </c>
       <c r="D865" t="n">
         <v>6343</v>
       </c>
       <c r="E865" t="n">
-        <v>53423670</v>
+        <v>53440174</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96858</v>
+        <v>96859</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463319404</v>
+        <v>463325082</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
